--- a/simulations/GenerativeAI_Calculations_Step0.xlsx
+++ b/simulations/GenerativeAI_Calculations_Step0.xlsx
@@ -7,11 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Initial Beliefs" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expected Impacts" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expected Utilities" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Belief Update" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Exigence Update" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model Parameters" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Initial Beliefs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expected Impacts" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expected Utilities" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Belief Update" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Exigence Update" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,6 +36,10 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="6">
@@ -69,7 +74,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,13 +82,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -454,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,136 +479,402 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Initial Beliefs</t>
+          <t>Model Parameters and Assumptions</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Organization's beliefs about Researcher strategies</t>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Scenario</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>gen_ai</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Generative AI or Citizen Science scenario</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>M_O</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Maximum impact for organization</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>M_R</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Maximum impact for researcher</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>alpha_O</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Weight between impact and private benefit for organization</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>alpha_R</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Weight between impact and private benefit for researcher</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>P_altruistic</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Private benefit for altruistic strategies</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>P_egoistic</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Private benefit for egoistic strategies</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>X_init</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Initial exigence value</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Learning rate for exigence updates</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Threshold impact value</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>Impact Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>Organization Impact Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>Strategy</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>Normalized</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>a,k</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="B19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>a,d</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="B20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>a,p</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="B21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>e,k</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="B22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>e,d</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="B23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>e,p</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="n">
+      <c r="B24" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>Researcher Impact Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>Normalized</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>a,k</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>a,d</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>a,p</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C30" t="n">
         <v>0.25</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.1944444444444444</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Researcher's beliefs about Organization strategies</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Strategy</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>a,k</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>a,d</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>a,p</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>e,k</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="B31" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>e,d</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="B32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>e,p</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="n">
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1724137931034483</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1379310344827586</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.2068965517241379</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.1379310344827586</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.103448275862069</v>
+      <c r="B33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>Current Beliefs</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>Initial Beliefs</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -619,14 +899,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Expected Impacts</t>
+          <t>Initial Beliefs</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Organization's expected impacts</t>
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Organization's beliefs about Researcher strategies</t>
         </is>
       </c>
     </row>
@@ -669,28 +949,28 @@
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>0.6888888888888889</v>
+        <v>0.25</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5888888888888888</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5388888888888889</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5388888888888889</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4888888888888888</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Researcher's expected impacts</t>
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Researcher's beliefs about Organization strategies</t>
         </is>
       </c>
     </row>
@@ -733,22 +1013,22 @@
     </row>
     <row r="9">
       <c r="B9" t="n">
-        <v>0.7103448275862069</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6103448275862069</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5103448275862068</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6603448275862069</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4603448275862069</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4103448275862068</v>
+        <v>0.103448275862069</v>
       </c>
     </row>
   </sheetData>
@@ -773,14 +1053,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Expected Utilities</t>
+          <t>Expected Impacts</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Organization's expected utilities</t>
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Organization's expected impacts</t>
         </is>
       </c>
     </row>
@@ -823,28 +1103,28 @@
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>0.4944444444444445</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4194444444444444</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>0.6694444444444444</v>
+        <v>0.5388888888888889</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6388888888888888</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6194444444444445</v>
+        <v>0.5388888888888889</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5944444444444443</v>
+        <v>0.4888888888888888</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Researcher's expected utilities</t>
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Researcher's expected impacts</t>
         </is>
       </c>
     </row>
@@ -887,22 +1167,22 @@
     </row>
     <row r="9">
       <c r="B9" t="n">
-        <v>0.5051724137931034</v>
+        <v>0.7103448275862069</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4551724137931035</v>
+        <v>0.6103448275862069</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4051724137931034</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>0.6801724137931034</v>
+        <v>0.5103448275862068</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6603448275862069</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5801724137931035</v>
+        <v>0.4603448275862069</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5551724137931033</v>
+        <v>0.4103448275862068</v>
       </c>
     </row>
   </sheetData>
@@ -911,6 +1191,160 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Expected Utilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Organization's expected utilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>a,k</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>a,d</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>a,p</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>e,k</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>e,d</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>e,p</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>0.4944444444444445</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4194444444444444</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6194444444444445</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5944444444444443</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Researcher's expected utilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>a,k</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>a,d</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>a,p</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>e,k</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>e,d</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>e,p</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>0.5051724137931034</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4551724137931035</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4051724137931034</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.6801724137931034</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.5801724137931035</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5551724137931033</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -932,7 +1366,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Organization's belief update</t>
         </is>
@@ -972,16 +1406,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2065163121237794</v>
+        <v>0.1375931007154105</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05162907803094485</v>
+        <v>0.03439827517885263</v>
       </c>
       <c r="D5" t="n">
-        <v>0.155524630117908</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.3319672131147541</v>
+        <v>0.1036194956004944</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>0.331967213114754</v>
       </c>
     </row>
     <row r="6">
@@ -991,15 +1425,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1606237983184951</v>
+        <v>0.107016856111986</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03123240522859626</v>
+        <v>0.02080883313288616</v>
       </c>
       <c r="D6" t="n">
-        <v>0.155524630117908</v>
-      </c>
-      <c r="E6" s="4" t="n">
+        <v>0.1036194956004944</v>
+      </c>
+      <c r="E6" s="7" t="n">
         <v>0.2008196721311475</v>
       </c>
     </row>
@@ -1010,15 +1444,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1147312845132108</v>
+        <v>0.07644061150856141</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01593490062683483</v>
+        <v>0.01061675159841131</v>
       </c>
       <c r="D7" t="n">
-        <v>0.155524630117908</v>
-      </c>
-      <c r="E7" s="5" t="n">
+        <v>0.1036194956004944</v>
+      </c>
+      <c r="E7" s="8" t="n">
         <v>0.1024590163934426</v>
       </c>
     </row>
@@ -1029,15 +1463,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1835700552211373</v>
+        <v>0.1223049784136983</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04079334560469717</v>
+        <v>0.02717888409193295</v>
       </c>
       <c r="D8" t="n">
-        <v>0.155524630117908</v>
-      </c>
-      <c r="E8" s="6" t="n">
+        <v>0.1036194956004944</v>
+      </c>
+      <c r="E8" s="9" t="n">
         <v>0.2622950819672131</v>
       </c>
     </row>
@@ -1048,15 +1482,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09178502761056863</v>
+        <v>0.06115248920684913</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01019833640117429</v>
+        <v>0.006794721022983238</v>
       </c>
       <c r="D9" t="n">
-        <v>0.155524630117908</v>
-      </c>
-      <c r="E9" s="5" t="n">
+        <v>0.1036194956004944</v>
+      </c>
+      <c r="E9" s="8" t="n">
         <v>0.06557377049180328</v>
       </c>
     </row>
@@ -1067,15 +1501,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06883877070792646</v>
+        <v>0.04586436690513684</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005736564225660538</v>
+        <v>0.00382203057542807</v>
       </c>
       <c r="D10" t="n">
-        <v>0.155524630117908</v>
-      </c>
-      <c r="E10" s="5" t="n">
+        <v>0.1036194956004944</v>
+      </c>
+      <c r="E10" s="8" t="n">
         <v>0.03688524590163934</v>
       </c>
     </row>
@@ -1086,11 +1520,11 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>Researcher's belief update</t>
         </is>
@@ -1130,15 +1564,15 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1993950599815801</v>
+        <v>0.1328485110355688</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04812984206451933</v>
+        <v>0.0320668819741028</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1483184928927024</v>
-      </c>
-      <c r="E15" s="4" t="n">
+        <v>0.09881835057325558</v>
+      </c>
+      <c r="E15" s="7" t="n">
         <v>0.3245033112582781</v>
       </c>
     </row>
@@ -1149,15 +1583,15 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1424250428439858</v>
+        <v>0.09489179359683486</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02455604186965273</v>
+        <v>0.0163606540684198</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1483184928927024</v>
-      </c>
-      <c r="E16" s="5" t="n">
+        <v>0.09881835057325558</v>
+      </c>
+      <c r="E16" s="8" t="n">
         <v>0.1655629139072848</v>
       </c>
     </row>
@@ -1168,15 +1602,15 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1139400342751886</v>
+        <v>0.07591343487746788</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01571586679657774</v>
+        <v>0.01047081860378867</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1483184928927024</v>
-      </c>
-      <c r="E17" s="5" t="n">
+        <v>0.09881835057325558</v>
+      </c>
+      <c r="E17" s="8" t="n">
         <v>0.1059602649006623</v>
       </c>
     </row>
@@ -1187,15 +1621,15 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.170910051412783</v>
+        <v>0.1138701523162018</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03536070029229992</v>
+        <v>0.02355934185852451</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1483184928927024</v>
-      </c>
-      <c r="E18" s="6" t="n">
+        <v>0.09881835057325558</v>
+      </c>
+      <c r="E18" s="9" t="n">
         <v>0.2384105960264901</v>
       </c>
     </row>
@@ -1206,15 +1640,15 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1139400342751886</v>
+        <v>0.07591343487746788</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01571586679657774</v>
+        <v>0.01047081860378867</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1483184928927024</v>
-      </c>
-      <c r="E19" s="5" t="n">
+        <v>0.09881835057325558</v>
+      </c>
+      <c r="E19" s="8" t="n">
         <v>0.1059602649006623</v>
       </c>
     </row>
@@ -1225,15 +1659,15 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.08545502570639148</v>
+        <v>0.05693507615810091</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008840175073074981</v>
+        <v>0.005889835464631128</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1483184928927024</v>
-      </c>
-      <c r="E20" s="5" t="n">
+        <v>0.09881835057325558</v>
+      </c>
+      <c r="E20" s="8" t="n">
         <v>0.05960264900662252</v>
       </c>
     </row>
@@ -1252,7 +1686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1280,7 +1714,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3312363093769298</v>
+        <v>0.2047909910480237</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1298,7 +1732,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4948289391181878</v>
+        <v>0.3455814118136185</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1316,7 +1750,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8260652484951176</v>
+        <v>0.5503724028616421</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1344,7 +1778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4473934751504882</v>
+        <v>0.4749627597138358</v>
       </c>
     </row>
     <row r="9">
@@ -1353,8 +1787,8 @@
           <t>Exigence Change</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n">
-        <v>-0.05260652484951178</v>
+      <c r="B9" s="8" t="n">
+        <v>-0.02503724028616422</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
